--- a/Reports/Format.xlsx
+++ b/Reports/Format.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
-    <t xml:space="preserve">Tech Report dated 17-04-2023</t>
+    <t xml:space="preserve">Tech Report dated 03-05-2023</t>
   </si>
   <si>
     <t xml:space="preserve">Tech Operations</t>
@@ -40,28 +40,28 @@
     <t xml:space="preserve">Division Name</t>
   </si>
   <si>
-    <t xml:space="preserve">POS High Sync Defaulter dated 13/04/2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POS Daily Sync Defaulter dated 13/04/2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Post Offices having daily synch failure for more than 48 hours dated: 13/04/2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Post Offices not performded EOD in DPMS dated: 13/04/2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bos for which  BO slips are not generated in CSI dated: 13/04/2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Post offices where both NSP 1 &amp; 2 are down dated: 13/04/2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Post offices where both NSP 1 &amp; 2 are down but ticket is not raised dated: 13/04/2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOs which have not logged in Darpan during Office Hours(9AM - 2PM) dated: 13/04/2023</t>
+    <t xml:space="preserve">POS High Sync Defaulter dated 02/05/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POS Daily Sync Defaulter dated 02/05/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Post Offices having daily synch failure for more than 48 hours dated: 02/05/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Post Offices not performded EOD in DPMS dated: 02/05/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bos for which  BO slips are not generated in CSI dated: 02/05/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Post offices where both NSP 1 &amp; 2 are down dated: 02/05/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Post offices where both NSP 1 &amp; 2 are down but ticket is not raised dated: 02/05/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOs which have not logged in Darpan during Office Hours(9AM - 2PM) dated: 02/05/2023</t>
   </si>
   <si>
     <t xml:space="preserve">Cachar Division</t>
@@ -420,7 +420,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.9453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.95703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.04"/>
@@ -507,7 +507,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="n">
         <v>1</v>
       </c>
@@ -515,31 +515,31 @@
         <v>14</v>
       </c>
       <c r="C5" s="7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" s="7" t="n">
         <v>7</v>
       </c>
       <c r="E5" s="7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F5" s="7" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G5" s="7" t="n">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="H5" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="7" t="n">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="n">
         <v>2</v>
       </c>
@@ -547,19 +547,19 @@
         <v>15</v>
       </c>
       <c r="C6" s="7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6" s="7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E6" s="7" t="n">
         <v>1</v>
       </c>
       <c r="F6" s="7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G6" s="7" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H6" s="7" t="n">
         <v>0</v>
@@ -568,10 +568,10 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="n">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="n">
         <v>3</v>
       </c>
@@ -579,19 +579,19 @@
         <v>16</v>
       </c>
       <c r="C7" s="7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7" t="n">
         <v>3</v>
       </c>
       <c r="E7" s="7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7" s="7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G7" s="7" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H7" s="7" t="n">
         <v>0</v>
@@ -600,10 +600,10 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="n">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="n">
         <v>4</v>
       </c>
@@ -611,16 +611,16 @@
         <v>17</v>
       </c>
       <c r="C8" s="7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" s="7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E8" s="7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F8" s="7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G8" s="7" t="n">
         <v>28</v>
@@ -632,10 +632,10 @@
         <v>2</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="n">
         <v>5</v>
       </c>
@@ -646,17 +646,17 @@
         <v>2</v>
       </c>
       <c r="D9" s="7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E9" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="F9" s="7" t="n">
+      <c r="G9" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="G9" s="7" t="n">
-        <v>8</v>
-      </c>
       <c r="H9" s="7" t="n">
         <v>0</v>
       </c>
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="J9" s="7" t="n">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="n">
         <v>6</v>
       </c>
@@ -675,7 +675,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7" t="n">
         <v>2</v>
@@ -684,10 +684,10 @@
         <v>2</v>
       </c>
       <c r="F10" s="7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G10" s="7" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H10" s="7" t="n">
         <v>0</v>
@@ -696,10 +696,10 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="n">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="n">
         <v>7</v>
       </c>
@@ -707,19 +707,19 @@
         <v>20</v>
       </c>
       <c r="C11" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E11" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" s="7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G11" s="7" t="n">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="H11" s="7" t="n">
         <v>0</v>
@@ -728,10 +728,10 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="n">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="n">
         <v>8</v>
       </c>
@@ -742,16 +742,16 @@
         <v>3</v>
       </c>
       <c r="D12" s="7" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E12" s="7" t="n">
         <v>3</v>
       </c>
       <c r="F12" s="7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G12" s="7" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="H12" s="7" t="n">
         <v>0</v>
@@ -760,10 +760,10 @@
         <v>0</v>
       </c>
       <c r="J12" s="7" t="n">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="n">
         <v>9</v>
       </c>
@@ -771,19 +771,19 @@
         <v>22</v>
       </c>
       <c r="C13" s="7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E13" s="7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" s="7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G13" s="7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H13" s="7" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -801,28 +801,28 @@
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D14" s="12" t="n">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E14" s="12" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F14" s="12" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="G14" s="12" t="n">
-        <v>244</v>
+        <v>217</v>
       </c>
       <c r="H14" s="12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I14" s="12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J14" s="12" t="n">
-        <v>781</v>
+        <v>699</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
